--- a/варианты/Варианты М.Ишимов/22.xlsx
+++ b/варианты/Варианты М.Ишимов/22.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/КИМ 2024/myvar1_2024/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{644500C8-1129-584C-82D2-ED0A719CE3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -43,28 +37,13 @@
     <t>Время выполнения процесса B (мс)</t>
   </si>
   <si>
-    <t>3;4</t>
-  </si>
-  <si>
-    <t>10;12</t>
-  </si>
-  <si>
-    <t>11;15</t>
-  </si>
-  <si>
-    <t>5;7;8;14</t>
-  </si>
-  <si>
-    <t>14;17</t>
-  </si>
-  <si>
-    <t>13;14</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,12 +54,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,11 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,24 +379,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="234" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -410,8 +419,39 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="str">
+        <f>VLOOKUP(C2,$A:$L,12,0)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f t="shared" ref="H2:J17" si="0">VLOOKUP(D2,$A:$L,12,0)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K2" s="4">
+        <f>MIN(G2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f>K2+B2</f>
+        <v>666</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(L2:L19,"&lt;2500")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,8 +461,35 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G19" si="1">VLOOKUP(C3,$A:$L,12,0)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K19" si="2">MIN(G3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L19" si="3">K3+B3</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -432,8 +499,35 @@
       <c r="C4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1922</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>1922</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="3"/>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -443,8 +537,35 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -454,19 +575,79 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>798</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>798</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="3"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>568</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>1237</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>1922</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>2122</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>1237</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="3"/>
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -476,8 +657,35 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1237</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>1237</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -487,19 +695,75 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>666</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>409</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2506</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>847</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>847</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -509,8 +773,35 @@
       <c r="C11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1922</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>1922</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -520,8 +811,35 @@
       <c r="C12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>1256</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>1256</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -531,30 +849,115 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>276</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>2548</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="3"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>448</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>1804</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>1674</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>1674</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -564,30 +967,115 @@
       <c r="C16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>1256</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>1256</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="3"/>
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>490</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>2122</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>1209</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>1209</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>473</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ref="H18:H20" si="4">VLOOKUP(D18,$A:$L,12,0)</f>
+        <v>2122</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" ref="I18:I20" si="5">VLOOKUP(E18,$A:$L,12,0)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" ref="J18:J20" si="6">VLOOKUP(F18,$A:$L,12,0)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -596,6 +1084,53 @@
       </c>
       <c r="C19" s="1">
         <v>13</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="3"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
